--- a/election_votar_data/LOHAGARA/BARAHATIA/152541/152541_com_1346_male_without_photo_77_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152541/152541_com_1346_male_without_photo_77_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="41.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:২৫/০৩/১৯৮৭</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G119" s="3" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:০৩/০৬/১৯৭৮</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G138" s="3" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>কৃষক/জন্ম তারিখ:১০/০৩/১৯৭২</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G139" s="3" t="inlineStr">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০২/০৮/১৯৮৮</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G140" s="3" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর/জন্ম তারিখ:২৬/০৬/১৯৭১</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G141" s="3" t="inlineStr">
@@ -20307,7 +20307,7 @@
       </c>
       <c r="F473" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৮/১৯৬৮</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G473" s="3" t="inlineStr">
@@ -20475,7 +20475,7 @@
       </c>
       <c r="F477" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:০৬/০৬/১৯৬৯</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G477" s="3" t="inlineStr">
@@ -20811,7 +20811,7 @@
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:০৩/০৯/১৯৭১</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
@@ -20979,7 +20979,7 @@
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০১/০১/১৯৮২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="F498" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৩/১৯৮৭</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G498" s="3" t="inlineStr">
@@ -22449,7 +22449,7 @@
       </c>
       <c r="F524" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০১/০১/১৯৮১</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G524" s="3" t="inlineStr">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="F583" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:১৫/০৫/১৯৫৫</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G583" s="3" t="inlineStr">
@@ -25389,7 +25389,7 @@
       </c>
       <c r="F594" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:১১/০৭/১৯৮২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G594" s="3" t="inlineStr">
@@ -25431,7 +25431,7 @@
       </c>
       <c r="F595" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৭/০৩/১৯৭১</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G595" s="3" t="inlineStr">
@@ -25473,7 +25473,7 @@
       </c>
       <c r="F596" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ: ০২/০৩/১৯৮৮</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G596" s="3" t="inlineStr">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="F598" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৬/০৮/১৯৮৮</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G598" s="3" t="inlineStr">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="F611" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১৮/০৩/১৯৭১</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G611" s="3" t="inlineStr">
@@ -26229,7 +26229,7 @@
       </c>
       <c r="F614" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী/জন্ম তারিখ:২৮/০২/১৯৬৭</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G614" s="3" t="inlineStr">
@@ -42861,7 +42861,7 @@
       </c>
       <c r="F1010" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:০১/০২/১৯৭২</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G1010" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/BARAHATIA/152541/152541_com_1346_male_without_photo_77_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152541/152541_com_1346_male_without_photo_77_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:২৫/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="G119" s="3" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:০৩/০৬/১৯৭৮</t>
         </is>
       </c>
       <c r="G138" s="3" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ:১০/০৩/১৯৭২</t>
         </is>
       </c>
       <c r="G139" s="3" t="inlineStr">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০২/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="G140" s="3" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>দিনমজুর/জন্ম তারিখ:২৬/০৬/১৯৭১</t>
         </is>
       </c>
       <c r="G141" s="3" t="inlineStr">
@@ -20307,7 +20307,7 @@
       </c>
       <c r="F473" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৮/১৯৬৮</t>
         </is>
       </c>
       <c r="G473" s="3" t="inlineStr">
@@ -20475,7 +20475,7 @@
       </c>
       <c r="F477" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ:০৬/০৬/১৯৬৯</t>
         </is>
       </c>
       <c r="G477" s="3" t="inlineStr">
@@ -20811,7 +20811,7 @@
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ:০৩/০৯/১৯৭১</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
@@ -20979,7 +20979,7 @@
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০১/০১/১৯৮২</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="F498" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="G498" s="3" t="inlineStr">
@@ -22449,7 +22449,7 @@
       </c>
       <c r="F524" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০১/০১/১৯৮১</t>
         </is>
       </c>
       <c r="G524" s="3" t="inlineStr">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="F583" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:১৫/০৫/১৯৫৫</t>
         </is>
       </c>
       <c r="G583" s="3" t="inlineStr">
@@ -25389,7 +25389,7 @@
       </c>
       <c r="F594" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:১১/০৭/১৯৮২</t>
         </is>
       </c>
       <c r="G594" s="3" t="inlineStr">
@@ -25431,7 +25431,7 @@
       </c>
       <c r="F595" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৭/০৩/১৯৭১</t>
         </is>
       </c>
       <c r="G595" s="3" t="inlineStr">
@@ -25473,7 +25473,7 @@
       </c>
       <c r="F596" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ০২/০৩/১৯৮৮</t>
         </is>
       </c>
       <c r="G596" s="3" t="inlineStr">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="F598" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৬/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="G598" s="3" t="inlineStr">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="F611" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:১৮/০৩/১৯৭১</t>
         </is>
       </c>
       <c r="G611" s="3" t="inlineStr">
@@ -26229,7 +26229,7 @@
       </c>
       <c r="F614" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ:২৮/০২/১৯৬৭</t>
         </is>
       </c>
       <c r="G614" s="3" t="inlineStr">
@@ -42861,7 +42861,7 @@
       </c>
       <c r="F1010" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ:০১/০২/১৯৭২</t>
         </is>
       </c>
       <c r="G1010" s="3" t="inlineStr">
